--- a/src/main/java/testdata/CRM(SignUp).xlsx
+++ b/src/main/java/testdata/CRM(SignUp).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khano\IdeaProjects\Famework_\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63C6B3D-3A89-4298-9054-6FABE6FE7710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0EE25E-8499-4A0E-BA41-904FBA117D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="3696" windowWidth="9792" windowHeight="9984" xr2:uid="{7B747242-A79C-4F2D-BB12-17050ACF85CD}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{7B747242-A79C-4F2D-BB12-17050ACF85CD}"/>
   </bookViews>
   <sheets>
     <sheet name="registration data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>firstname</t>
   </si>
@@ -62,18 +62,12 @@
     <t>nav@gmail.com</t>
   </si>
   <si>
-    <t>nav@123</t>
-  </si>
-  <si>
     <t>nav123</t>
   </si>
   <si>
     <t>nafs123</t>
   </si>
   <si>
-    <t>nafk3@</t>
-  </si>
-  <si>
     <t>naf@gmail.com</t>
   </si>
   <si>
@@ -92,18 +86,12 @@
     <t>jery@gmail.com</t>
   </si>
   <si>
-    <t>tomk@</t>
-  </si>
-  <si>
     <t>tom123</t>
   </si>
   <si>
     <t>rush123</t>
   </si>
   <si>
-    <t>bigtime@</t>
-  </si>
-  <si>
     <t>rush@gmail.com</t>
   </si>
   <si>
@@ -111,6 +99,15 @@
   </si>
   <si>
     <t>big</t>
+  </si>
+  <si>
+    <t>nafk3</t>
+  </si>
+  <si>
+    <t>tomk</t>
+  </si>
+  <si>
+    <t>bigtime</t>
   </si>
 </sst>
 </file>
@@ -480,19 +477,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9726827-553A-48CE-BD26-CF1A00C7969A}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="13.734375" customWidth="1"/>
+    <col min="4" max="4" width="11.578125" customWidth="1"/>
     <col min="6" max="6" width="14.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,9 +506,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -524,69 +521,69 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{735FA20F-6111-4D19-9C20-94050C76F83E}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{E057774D-B710-4B47-B1C7-7857292DFE04}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{AD651C8F-5D12-42DC-B46D-F4D48FC9DA4D}"/>
+    <hyperlink ref="D2" r:id="rId2" display="nav@123" xr:uid="{E057774D-B710-4B47-B1C7-7857292DFE04}"/>
+    <hyperlink ref="D3" r:id="rId3" display="nafk3@" xr:uid="{AD651C8F-5D12-42DC-B46D-F4D48FC9DA4D}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{D995B03B-81E8-4C3B-BA80-010996E915E7}"/>
     <hyperlink ref="C4" r:id="rId5" xr:uid="{72FC2A06-3536-4072-963A-A02745513E41}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{F856C82B-EE67-4A3D-B105-ACE806D7C867}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{0FB5B8B0-D3E5-4583-8252-0692F5327F90}"/>
+    <hyperlink ref="D4" r:id="rId6" display="tomk@" xr:uid="{F856C82B-EE67-4A3D-B105-ACE806D7C867}"/>
+    <hyperlink ref="D5" r:id="rId7" display="bigtime@" xr:uid="{0FB5B8B0-D3E5-4583-8252-0692F5327F90}"/>
     <hyperlink ref="C5" r:id="rId8" xr:uid="{9AF0C660-337E-4CA2-8941-753DF43F3807}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/testdata/CRM(SignUp).xlsx
+++ b/src/main/java/testdata/CRM(SignUp).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khano\IdeaProjects\Famework_\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khano\IdeaProjects\Framework\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0EE25E-8499-4A0E-BA41-904FBA117D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6219B25E-58BF-4816-9D4B-B33166DFE848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{7B747242-A79C-4F2D-BB12-17050ACF85CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>firstname</t>
   </si>
@@ -53,12 +53,6 @@
     <t>username</t>
   </si>
   <si>
-    <t>naveen</t>
-  </si>
-  <si>
-    <t>khuntra</t>
-  </si>
-  <si>
     <t>nav@gmail.com</t>
   </si>
   <si>
@@ -108,6 +102,9 @@
   </si>
   <si>
     <t>bigtime</t>
+  </si>
+  <si>
+    <t>nav</t>
   </si>
 </sst>
 </file>
@@ -469,7 +466,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,7 +477,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -509,70 +506,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
